--- a/051 각종 오류.xlsx
+++ b/051 각종 오류.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\유튜브\1-쉽게배워바로써먹는_엑셀실무\오류종류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hightop\Desktop\자격증 관련\Excel (인프런)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD88F6-C7C6-4273-AA1D-331AB7CC7409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39214832-B9E4-42BD-AAD9-94A27D3FD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8CE12EDD-A903-453D-9173-D2DA91965075}"/>
+    <workbookView xWindow="29130" yWindow="1335" windowWidth="23265" windowHeight="14100" firstSheet="1" activeTab="9" xr2:uid="{8CE12EDD-A903-453D-9173-D2DA91965075}"/>
   </bookViews>
   <sheets>
     <sheet name="#VALUE!-1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'#NA'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'#REF!-1'!$C$4:$G$78</definedName>
+    <definedName name="금액합계">'#NAME'!$G$12</definedName>
     <definedName name="제품명">[1]제품명!$B$3:$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,145 +52,167 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="172">
   <si>
     <t>수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정보화 교육 교재 입고 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>교재명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>출판사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>할인율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구성비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>컴퓨터 입문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이한아이티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>한글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이지스퍼블리싱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>엑셀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>파워포인트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>길벗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>매크로&amp;VBA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>블로그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>영진출판사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>포토샵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>한빛미디어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>주방 가전 행사 거래 내역</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>일자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>거래지점</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>품명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>행사금액</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>사은품</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>영도지점</t>
   </si>
   <si>
     <t>식기세척기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해운대지점</t>
   </si>
   <si>
     <t>광파오븐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>사상지점</t>
@@ -199,282 +222,282 @@
   </si>
   <si>
     <t>중탕기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>수영지점</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>에어프라이어</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>냉정수기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>수영지점</t>
   </si>
   <si>
     <t>원액주서기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>전기압력밭솥</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>토스터기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>전자레인지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>반자동커피머신</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>슬로쿠커</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>커피메이커</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>전기주전자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>전기레인지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해운대지점</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>영도지점</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>사상지점</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>멀티블랜더</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>동래지점</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">합계 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>가전 행사 판매 금액</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주방가전</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>생활가전</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>계절가전</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주민등록번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>소모품 구입현황</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>단가표</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>품명</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>판매가격</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>포스트잇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>포스트잇</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>볼펜</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>유리테이프</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>형광펜</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>칼날</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A4용지</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>샤프심</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>현광펜</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>포스트잍</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>유리 테이프</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>=SQRT(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>수식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=SQRT(-6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=2^1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=3^1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주민등록번호</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>최현희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>000325-4715526</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>이경호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>021201-3190622</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>차준영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>011020-4240417</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>김성헌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>001129-3107911</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고현주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>030929-4155019</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>강하나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>020509-4110913</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>허영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>040321-3146018</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>방송현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010413-3829119</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>이준석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>031110-4172211</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IT 장비 대여 내역</t>
@@ -498,98 +521,364 @@
     <t>대여료</t>
   </si>
   <si>
+    <t>복사기</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
+    <t>2020.03.13</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>580,000</t>
+  </si>
+  <si>
+    <t>2020.03.15</t>
+  </si>
+  <si>
+    <t>공유기</t>
+  </si>
+  <si>
+    <t>250,000</t>
+  </si>
+  <si>
+    <t>2020.03.20</t>
+  </si>
+  <si>
+    <t>잉크젯 프린터</t>
+  </si>
+  <si>
+    <t>300,000</t>
+  </si>
+  <si>
+    <t>레이저 복합기</t>
+  </si>
+  <si>
+    <t>350,000</t>
+  </si>
+  <si>
+    <t>팩스</t>
+  </si>
+  <si>
+    <t>18,000</t>
+  </si>
+  <si>
+    <t>플로터</t>
+  </si>
+  <si>
+    <t>800,000</t>
+  </si>
+  <si>
+    <t>빔 프로젝트</t>
+  </si>
+  <si>
+    <t>1,200,000</t>
+  </si>
+  <si>
+    <t>노트북</t>
+  </si>
+  <si>
+    <t>600,000</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>10개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#VALUE! 에러는 잘못된 데이터 유형 또는 수식의 인수가 올바르지 않다는 것을 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산이나 함수 인수로 들어가는 데이터의 타입이 연산이나 인수에 어울리지 않을 때 주로 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2020.03.10</t>
-  </si>
-  <si>
-    <t>복사기</t>
-  </si>
-  <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
-    <t>2020.03.13</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>580,000</t>
-  </si>
-  <si>
-    <t>2020.03.15</t>
-  </si>
-  <si>
-    <t>공유기</t>
-  </si>
-  <si>
-    <t>250,000</t>
-  </si>
-  <si>
-    <t>2020.03.20</t>
-  </si>
-  <si>
-    <t>잉크젯 프린터</t>
-  </si>
-  <si>
-    <t>300,000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 데이터는 - 또는 / 기호로 구분된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 데이터 덧셈 뺄셈 수치는 1일 단위이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2020.03.21</t>
-  </si>
-  <si>
-    <t>레이저 복합기</t>
-  </si>
-  <si>
-    <t>350,000</t>
-  </si>
-  <si>
-    <t>2020.03.25</t>
-  </si>
-  <si>
-    <t>2020.03.30</t>
-  </si>
-  <si>
-    <t>팩스</t>
-  </si>
-  <si>
-    <t>18,000</t>
-  </si>
-  <si>
-    <t>2020.04.02</t>
-  </si>
-  <si>
-    <t>2020.04.04</t>
-  </si>
-  <si>
-    <t>플로터</t>
-  </si>
-  <si>
-    <t>800,000</t>
-  </si>
-  <si>
-    <t>2020.04.09</t>
-  </si>
-  <si>
-    <t>빔 프로젝트</t>
-  </si>
-  <si>
-    <t>1,200,000</t>
-  </si>
-  <si>
-    <t>2020.04.14</t>
-  </si>
-  <si>
-    <t>노트북</t>
-  </si>
-  <si>
-    <t>600,000</t>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>10개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">엑셀에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>#NULL!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 오류는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두 개의 교차하지 않는 범위가 함께 사용되었을 때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 발생하는 오류이다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시: =SUM(A1 A3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시: =SUM(A1:A3 C1:C3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-- 잘못된 범위 구분 기호를 사용할 때 자주 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-- 교차하지 않는 범위를 연산하려 한다거나, </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">쉽게 말해, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>#NULL!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 발생하는 이유로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위 지정 부분에서 오타가 있을 확률이 높다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DIV/0!은 0으로 나누려고 시도할 때 발생하는 오류이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대 참조로 설정해주는 걸 깜빡해서 채우기 핸들을 따라 0으로 나누게 된 경우가 굉장히 많다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NAME? 에러는 잘못된 함수 이름이나, 정의되지 않은 이름을 사용할 때 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>여기서는 G12 셀에 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액합계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>'라고 이름을 지었는데, 구성비 컬럼에서 나눌 때 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합계금액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>'이라고 적어버려서 에러가 났다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적으로 함수 이름에 오타를 낸다든지, 문자열 인수에서 따옴표를 누락한다든지, 범위 참조 기호를 잘못 쓸 때 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMME(A1:A10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF(A1=Yes, 1, 0)</t>
+  </si>
+  <si>
+    <t>SUM(A1_A10)</t>
+  </si>
+  <si>
+    <t>사진과 같이 124번째 행을 복사하여 [집계] 시트에 복붙하면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음과 같은 에러가 발생한다: </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#REF! 오류는 잘못된 셀 참조로 인해 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식이 존재하지 않거나 유효하지 않은 셀을 참조할 때 나타난다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 참조 방식 (단순히 셀을 복사 붙여넣기 하면 안 됨)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 참조 방식. 직접 시트에서 함수를 작성하여 시작해야 함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 참조하고 있었던 범위의 셀이 삭제된 경우에도 #REF! 에러가 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#N/A 에러는 주로 데이터가 없거나, 참조가 실패했을 때 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특히 VLOOKUP, HLOOKUP, MATCH 등의 함수에서 #N/A가 발생하면,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>오타 때문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>에 인수로 입력받은 값을 룩업 테이블에서 찾을 수 없는 경우가 많다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NUM! 에러는 수치 계산에서 문제가 발생했을 때 나타난다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산의 결과가 너무 크거나 작음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 사례 외에도 순환 참조, 복잡한 수식, 알고리즘 최대 반복 횟수 초과 등 다양한 원인에 의해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NUM! 에러가 발생할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀은 허수를 처리하지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -601,13 +890,21 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0&quot;개&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -739,14 +1036,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="5"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -795,6 +1084,53 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1191,38 +1527,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,106 +1631,100 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="17" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1">
@@ -1406,28 +1736,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -1472,7 +1796,7 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1484,16 +1808,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1523,8 +1871,150 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>618705</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B3072B-C9F6-2401-340A-9FC968AB60B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201150" y="1095375"/>
+          <a:ext cx="3361905" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31853307-880B-F890-95A1-0410C2035284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="2280381"/>
+          <a:ext cx="3695700" cy="1034054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685121</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F8FAAC-5265-43D6-FDFC-F13CAC35AEAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="3152775"/>
+          <a:ext cx="5428571" cy="2542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -1752,9 +2242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1792,7 +2282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1898,7 +2388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2040,7 +2530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2048,336 +2538,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED8462D-A2D2-4EEA-AFD8-E20C24B73AF2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="3" spans="2:4" ht="17.25" thickTop="1">
+      <c r="B3" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2">
         <v>108000</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D3" s="86" t="e">
+        <f>B3*C3</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="21" customHeight="1"/>
+    <row r="5" spans="2:4" ht="21" customHeight="1">
+      <c r="B5" s="87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="21" customHeight="1">
+      <c r="B6" s="87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="21" customHeight="1"/>
+    <row r="8" spans="2:4" ht="21" customHeight="1"/>
+    <row r="9" spans="2:4" ht="21" customHeight="1"/>
+    <row r="10" spans="2:4" ht="21" customHeight="1"/>
+    <row r="11" spans="2:4" ht="21" customHeight="1"/>
+    <row r="12" spans="2:4" ht="21" customHeight="1"/>
+    <row r="13" spans="2:4" ht="21" customHeight="1"/>
+    <row r="14" spans="2:4" ht="21" customHeight="1"/>
+    <row r="15" spans="2:4" ht="21" customHeight="1"/>
+    <row r="16" spans="2:4" ht="21" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C05827-56C6-4D75-8CE6-158269381CAA}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="2" spans="2:5">
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="61" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="C4">
+        <f>SQRT(6)</f>
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="C5" t="e">
+        <f>SQRT(-6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="61" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="C7">
+        <f>2^1000</f>
+        <v>1.0715086071862673E+301</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="61" t="s">
         <v>86</v>
       </c>
+      <c r="C8" t="e">
+        <f>3^1000</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F796CEFE-C648-48DA-BECA-EA968A0522F9}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="66" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="2:7" ht="26.25">
+      <c r="B1" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-    </row>
-    <row r="2" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="2:7" ht="17.25" customHeight="1"/>
+    <row r="3" spans="2:7" ht="30" customHeight="1" thickBot="1">
+      <c r="B3" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="74" t="s">
+    <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1">
+      <c r="B4" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="72" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+    <row r="5" spans="2:7" ht="21" customHeight="1" thickTop="1">
+      <c r="B5" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="88" t="e">
+        <f>B5+90</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="78" t="s">
+      <c r="E5" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="21" customHeight="1">
+      <c r="B6" s="75" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="79" t="s">
+      <c r="C6" s="88" t="e">
+        <f t="shared" ref="C6:C15" si="0">B6+90</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="80" t="s">
+      <c r="E6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="21" customHeight="1">
+      <c r="B7" s="75" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="79" t="s">
+      <c r="C7" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="80" t="s">
+      <c r="E7" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="68" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="21" customHeight="1">
+      <c r="B8" s="75" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="C8" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="80" t="s">
+      <c r="E8" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="G8" s="87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="21" customHeight="1">
+      <c r="B9" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79" t="s">
+      <c r="E9" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="80" t="s">
+      <c r="G9" s="87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="21" customHeight="1">
+      <c r="B10" s="75">
+        <v>43915</v>
+      </c>
+      <c r="C10" s="88">
+        <f t="shared" si="0"/>
+        <v>44005</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="21" customHeight="1">
+      <c r="B11" s="75">
+        <v>43920</v>
+      </c>
+      <c r="C11" s="88">
+        <f t="shared" si="0"/>
+        <v>44010</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E11" s="64" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="79" t="s">
+    <row r="12" spans="2:7" ht="21" customHeight="1">
+      <c r="B12" s="75">
+        <v>43923</v>
+      </c>
+      <c r="C12" s="88">
+        <f t="shared" si="0"/>
+        <v>44013</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="21" customHeight="1">
+      <c r="B13" s="75">
+        <v>43925</v>
+      </c>
+      <c r="C13" s="88">
+        <f t="shared" si="0"/>
+        <v>44015</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="79" t="s">
+      <c r="E13" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="80" t="s">
+    </row>
+    <row r="14" spans="2:7" ht="21" customHeight="1">
+      <c r="B14" s="75">
+        <v>43930</v>
+      </c>
+      <c r="C14" s="88">
+        <f t="shared" si="0"/>
+        <v>44020</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E14" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79" t="s">
+    <row r="15" spans="2:7" ht="21" customHeight="1">
+      <c r="B15" s="75">
+        <v>43935</v>
+      </c>
+      <c r="C15" s="88">
+        <f t="shared" si="0"/>
+        <v>44025</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79" t="s">
+      <c r="E15" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="80" t="s">
+    </row>
+    <row r="16" spans="2:7" ht="21" customHeight="1" thickBot="1">
+      <c r="B16" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="69"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B16:D16"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4DE343-1A10-4A6D-8F3B-3A57F1ABC9B5}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>10</v>
       </c>
       <c r="B1">
         <v>20</v>
       </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="e">
+        <f>SUM(A1 C1)</f>
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57965F6-8F1B-4D28-BFB6-E5F7E75C649D}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="3" width="14.375" customWidth="1"/>
@@ -2386,20 +3000,20 @@
     <col min="8" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+    <row r="1" spans="2:8" ht="8.25" customHeight="1"/>
+    <row r="2" spans="2:8" ht="20.25">
+      <c r="B2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="19.5" customHeight="1" thickTop="1">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2442,9 +3056,12 @@
         <f>D5*E5*(1-F5)</f>
         <v>3040000</v>
       </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="90">
+        <f>G5/G12</f>
+        <v>0.12557313395844522</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
@@ -2464,9 +3081,12 @@
         <f t="shared" ref="G6:G11" si="0">D6*E6*(1-F6)</f>
         <v>4050000</v>
       </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="90" t="e">
+        <f t="shared" ref="H6:H11" si="1">G6/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="19.5" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2486,9 +3106,12 @@
         <f t="shared" si="0"/>
         <v>5130000</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="90" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="19.5" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -2508,9 +3131,12 @@
         <f t="shared" si="0"/>
         <v>3519000</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="90" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19.5" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
@@ -2530,9 +3156,12 @@
         <f t="shared" si="0"/>
         <v>2375000</v>
       </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="90" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19.5" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2552,9 +3181,12 @@
         <f t="shared" si="0"/>
         <v>2720000</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="90" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
@@ -2574,14 +3206,17 @@
         <f t="shared" si="0"/>
         <v>3375000</v>
       </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84" t="s">
+      <c r="H11" s="90" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="21">
         <f>SUM(E5:E11)</f>
         <v>1380</v>
@@ -2592,13 +3227,23 @@
         <v>24209000</v>
       </c>
       <c r="H12" s="22"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="91" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:D12"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2606,36 +3251,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16425BC-D7D5-4FF7-961D-DCB504A6D894}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="66" customWidth="1"/>
-    <col min="2" max="3" width="14.375" style="66" customWidth="1"/>
-    <col min="4" max="6" width="10.875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="66" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="66" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="66"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+    <row r="1" spans="2:8" ht="8.25" customHeight="1"/>
+    <row r="2" spans="2:8" ht="20.25">
+      <c r="B2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2658,7 +3302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="19.5" customHeight="1" thickTop="1">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2678,9 +3322,12 @@
         <f>D5*E5*(1-F5)</f>
         <v>3040000</v>
       </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="12" t="e" cm="1">
+        <f t="array" ref="H5">G5/합계금액</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
@@ -2700,9 +3347,12 @@
         <f t="shared" ref="G6:G11" si="0">D6*E6*(1-F6)</f>
         <v>4050000</v>
       </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="12" t="e" cm="1">
+        <f t="array" ref="H6">G6/합계금액</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="19.5" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2722,9 +3372,12 @@
         <f t="shared" si="0"/>
         <v>5130000</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="12" t="e" cm="1">
+        <f t="array" ref="H7">G7/합계금액</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="19.5" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -2744,9 +3397,12 @@
         <f t="shared" si="0"/>
         <v>3519000</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="12" t="e" cm="1">
+        <f t="array" ref="H8">G8/합계금액</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19.5" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
@@ -2766,9 +3422,12 @@
         <f t="shared" si="0"/>
         <v>2375000</v>
       </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="12" t="e" cm="1">
+        <f t="array" ref="H9">G9/합계금액</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19.5" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2788,9 +3447,12 @@
         <f t="shared" si="0"/>
         <v>2720000</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="12" t="e" cm="1">
+        <f t="array" ref="H10">G10/합계금액</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
@@ -2810,14 +3472,17 @@
         <f t="shared" si="0"/>
         <v>3375000</v>
       </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84" t="s">
+      <c r="H11" s="12" t="e" cm="1">
+        <f t="array" ref="H11">G11/합계금액</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="21">
         <f>SUM(E5:E11)</f>
         <v>1380</v>
@@ -2828,13 +3493,43 @@
         <v>24209000</v>
       </c>
       <c r="H12" s="22"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:D12"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2842,17 +3537,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2E177C-B0C2-4285-A9B3-5AFAFF651003}">
-  <dimension ref="B1:I128"/>
+  <dimension ref="B1:K128"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="topRight" activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
-      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" style="24" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="24" customWidth="1"/>
@@ -2865,19 +3560,19 @@
     <col min="9" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="87" t="s">
+    <row r="1" spans="2:11" ht="32.25" customHeight="1">
+      <c r="B1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-    </row>
-    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+    </row>
+    <row r="3" spans="2:11" ht="19.5" customHeight="1">
       <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
@@ -2903,7 +3598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="18" customHeight="1">
       <c r="B4" s="28">
         <v>44568</v>
       </c>
@@ -2931,7 +3626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="18" customHeight="1">
       <c r="B5" s="28">
         <v>44571</v>
       </c>
@@ -2956,7 +3651,7 @@
         <v>2677500</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="18" customHeight="1">
       <c r="B6" s="28">
         <v>44574</v>
       </c>
@@ -2984,7 +3679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="18" customHeight="1">
       <c r="B7" s="28">
         <v>44577</v>
       </c>
@@ -3012,7 +3707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="18" customHeight="1">
       <c r="B8" s="28">
         <v>44580</v>
       </c>
@@ -3036,8 +3731,11 @@
         <f t="shared" si="1"/>
         <v>1081200</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18" customHeight="1">
       <c r="B9" s="28">
         <v>44583</v>
       </c>
@@ -3061,8 +3759,11 @@
         <f t="shared" si="1"/>
         <v>4632500</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18" customHeight="1">
       <c r="B10" s="28">
         <v>44586</v>
       </c>
@@ -3090,7 +3791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="18" customHeight="1">
       <c r="B11" s="28">
         <v>44589</v>
       </c>
@@ -3118,7 +3819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="18" customHeight="1">
       <c r="B12" s="28">
         <v>44592</v>
       </c>
@@ -3143,7 +3844,7 @@
         <v>4590000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="18" customHeight="1">
       <c r="B13" s="28">
         <v>44595</v>
       </c>
@@ -3171,7 +3872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="18" customHeight="1">
       <c r="B14" s="28">
         <v>44598</v>
       </c>
@@ -3196,7 +3897,7 @@
         <v>2881500</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="18" customHeight="1">
       <c r="B15" s="28">
         <v>44601</v>
       </c>
@@ -3221,7 +3922,7 @@
         <v>4234275</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="18" customHeight="1">
       <c r="B16" s="28">
         <v>44604</v>
       </c>
@@ -3248,8 +3949,11 @@
       <c r="I16" s="31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1">
       <c r="B17" s="28">
         <v>44607</v>
       </c>
@@ -3276,8 +3980,11 @@
       <c r="I17" s="31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="18" customHeight="1">
       <c r="B18" s="28">
         <v>44610</v>
       </c>
@@ -3302,7 +4009,7 @@
         <v>5423000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="18" customHeight="1">
       <c r="B19" s="28">
         <v>44613</v>
       </c>
@@ -3327,7 +4034,7 @@
         <v>2711500</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="18" customHeight="1">
       <c r="B20" s="28">
         <v>44616</v>
       </c>
@@ -3355,7 +4062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="18" customHeight="1">
       <c r="B21" s="28">
         <v>44619</v>
       </c>
@@ -3380,7 +4087,7 @@
         <v>3969500</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="18" customHeight="1">
       <c r="B22" s="28">
         <v>44622</v>
       </c>
@@ -3405,7 +4112,7 @@
         <v>1984750</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="18" customHeight="1">
       <c r="B23" s="28">
         <v>44625</v>
       </c>
@@ -3433,7 +4140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="18" customHeight="1">
       <c r="B24" s="28">
         <v>44628</v>
       </c>
@@ -3458,7 +4165,7 @@
         <v>5954250</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="18" customHeight="1">
       <c r="B25" s="28">
         <v>44631</v>
       </c>
@@ -3486,7 +4193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="18" customHeight="1">
       <c r="B26" s="28">
         <v>44634</v>
       </c>
@@ -3511,7 +4218,7 @@
         <v>4847040</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="18" customHeight="1">
       <c r="B27" s="28">
         <v>44637</v>
       </c>
@@ -3536,7 +4243,7 @@
         <v>1575050</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="18" customHeight="1">
       <c r="B28" s="28">
         <v>44640</v>
       </c>
@@ -3564,7 +4271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="18" customHeight="1">
       <c r="B29" s="28">
         <v>44643</v>
       </c>
@@ -3592,7 +4299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="18" customHeight="1">
       <c r="B30" s="28">
         <v>44646</v>
       </c>
@@ -3617,7 +4324,7 @@
         <v>5763000</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="18" customHeight="1">
       <c r="B31" s="28">
         <v>44649</v>
       </c>
@@ -3642,7 +4349,7 @@
         <v>7780050</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="18" customHeight="1">
       <c r="B32" s="28">
         <v>44652</v>
       </c>
@@ -3670,7 +4377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="18" customHeight="1">
       <c r="B33" s="28">
         <v>44655</v>
       </c>
@@ -3698,7 +4405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="18" customHeight="1">
       <c r="B34" s="28">
         <v>44658</v>
       </c>
@@ -3723,7 +4430,7 @@
         <v>3752784</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="18" customHeight="1">
       <c r="B35" s="28">
         <v>44661</v>
       </c>
@@ -3751,7 +4458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="18" customHeight="1">
       <c r="B36" s="28">
         <v>44664</v>
       </c>
@@ -3776,7 +4483,7 @@
         <v>6254640</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="18" customHeight="1">
       <c r="B37" s="28">
         <v>44667</v>
       </c>
@@ -3801,7 +4508,7 @@
         <v>5559000</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="18" customHeight="1">
       <c r="B38" s="28">
         <v>44670</v>
       </c>
@@ -3829,7 +4536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="18" customHeight="1">
       <c r="B39" s="28">
         <v>44673</v>
       </c>
@@ -3857,7 +4564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="18" customHeight="1">
       <c r="B40" s="28">
         <v>44676</v>
       </c>
@@ -3882,7 +4589,7 @@
         <v>4228750</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="18" customHeight="1">
       <c r="B41" s="28">
         <v>44679</v>
       </c>
@@ -3907,7 +4614,7 @@
         <v>2574990</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="18" customHeight="1">
       <c r="B42" s="28">
         <v>44682</v>
       </c>
@@ -3935,7 +4642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="18" customHeight="1">
       <c r="B43" s="28">
         <v>44685</v>
       </c>
@@ -3963,7 +4670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="18" customHeight="1">
       <c r="B44" s="28">
         <v>44688</v>
       </c>
@@ -3988,7 +4695,7 @@
         <v>2703000</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="18" customHeight="1">
       <c r="B45" s="28">
         <v>44691</v>
       </c>
@@ -4013,7 +4720,7 @@
         <v>2703000</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="18" customHeight="1">
       <c r="B46" s="28">
         <v>44694</v>
       </c>
@@ -4041,7 +4748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="18" customHeight="1">
       <c r="B47" s="28">
         <v>44697</v>
       </c>
@@ -4069,7 +4776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" ht="18" customHeight="1">
       <c r="B48" s="28">
         <v>44700</v>
       </c>
@@ -4097,7 +4804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="18" customHeight="1">
       <c r="B49" s="28">
         <v>44703</v>
       </c>
@@ -4125,7 +4832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="18" customHeight="1">
       <c r="B50" s="28">
         <v>44706</v>
       </c>
@@ -4150,7 +4857,7 @@
         <v>1271600</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="18" customHeight="1">
       <c r="B51" s="28">
         <v>44709</v>
       </c>
@@ -4175,7 +4882,7 @@
         <v>1305260</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="18" customHeight="1">
       <c r="B52" s="28">
         <v>44712</v>
       </c>
@@ -4203,7 +4910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="18" customHeight="1">
       <c r="B53" s="28">
         <v>44715</v>
       </c>
@@ -4231,7 +4938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="18" customHeight="1">
       <c r="B54" s="28">
         <v>44718</v>
       </c>
@@ -4256,7 +4963,7 @@
         <v>5423000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="18" customHeight="1">
       <c r="B55" s="28">
         <v>44721</v>
       </c>
@@ -4284,7 +4991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" ht="18" customHeight="1">
       <c r="B56" s="28">
         <v>44724</v>
       </c>
@@ -4312,7 +5019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="18" customHeight="1">
       <c r="B57" s="28">
         <v>44727</v>
       </c>
@@ -4340,7 +5047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="18" customHeight="1">
       <c r="B58" s="28">
         <v>44730</v>
       </c>
@@ -4365,7 +5072,7 @@
         <v>1271600</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="18" customHeight="1">
       <c r="B59" s="28">
         <v>44733</v>
       </c>
@@ -4390,7 +5097,7 @@
         <v>3752784</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="18" customHeight="1">
       <c r="B60" s="28">
         <v>44736</v>
       </c>
@@ -4418,7 +5125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="18" customHeight="1">
       <c r="B61" s="28">
         <v>44739</v>
       </c>
@@ -4446,7 +5153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="18" customHeight="1">
       <c r="B62" s="28">
         <v>44742</v>
       </c>
@@ -4471,7 +5178,7 @@
         <v>1742840</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="18" customHeight="1">
       <c r="B63" s="28">
         <v>44745</v>
       </c>
@@ -4499,7 +5206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="18" customHeight="1">
       <c r="B64" s="28">
         <v>44748</v>
       </c>
@@ -4524,7 +5231,7 @@
         <v>6885000</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="18" customHeight="1">
       <c r="B65" s="28">
         <v>44751</v>
       </c>
@@ -4549,7 +5256,7 @@
         <v>4974412.5</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="18" customHeight="1">
       <c r="B66" s="28">
         <v>44754</v>
       </c>
@@ -4577,7 +5284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" ht="18" customHeight="1">
       <c r="B67" s="28">
         <v>44757</v>
       </c>
@@ -4605,7 +5312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="18" customHeight="1">
       <c r="B68" s="28">
         <v>44760</v>
       </c>
@@ -4630,7 +5337,7 @@
         <v>1691500</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="18" customHeight="1">
       <c r="B69" s="28">
         <v>44763</v>
       </c>
@@ -4655,7 +5362,7 @@
         <v>4972500</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="18" customHeight="1">
       <c r="B70" s="28">
         <v>44766</v>
       </c>
@@ -4680,7 +5387,7 @@
         <v>3316275</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="18" customHeight="1">
       <c r="B71" s="28">
         <v>44769</v>
       </c>
@@ -4708,7 +5415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="18" customHeight="1">
       <c r="B72" s="28">
         <v>44772</v>
       </c>
@@ -4736,7 +5443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" ht="18" customHeight="1">
       <c r="B73" s="28">
         <v>44775</v>
       </c>
@@ -4761,7 +5468,7 @@
         <v>1411425</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" ht="18" customHeight="1">
       <c r="B74" s="28">
         <v>44778</v>
       </c>
@@ -4786,7 +5493,7 @@
         <v>3374075</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" ht="18" customHeight="1">
       <c r="B75" s="28">
         <v>44781</v>
       </c>
@@ -4814,7 +5521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" ht="18" customHeight="1">
       <c r="B76" s="28">
         <v>44784</v>
       </c>
@@ -4842,7 +5549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" ht="18" customHeight="1">
       <c r="B77" s="28">
         <v>44787</v>
       </c>
@@ -4867,7 +5574,7 @@
         <v>4632500</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" ht="18" customHeight="1">
       <c r="B78" s="28">
         <v>44790</v>
       </c>
@@ -4895,7 +5602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" ht="18" customHeight="1">
       <c r="B79" s="28">
         <v>44793</v>
       </c>
@@ -4920,7 +5627,7 @@
         <v>1081200</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" ht="18" customHeight="1">
       <c r="B80" s="28">
         <v>44796</v>
       </c>
@@ -4945,7 +5652,7 @@
         <v>4632500</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" ht="18" customHeight="1">
       <c r="B81" s="28">
         <v>44799</v>
       </c>
@@ -4973,7 +5680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" ht="18" customHeight="1">
       <c r="B82" s="28">
         <v>44802</v>
       </c>
@@ -5001,7 +5708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="18" customHeight="1">
       <c r="B83" s="28">
         <v>44805</v>
       </c>
@@ -5026,7 +5733,7 @@
         <v>4590000</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" ht="18" customHeight="1">
       <c r="B84" s="28">
         <v>44808</v>
       </c>
@@ -5051,7 +5758,7 @@
         <v>2321392.5</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" ht="18" customHeight="1">
       <c r="B85" s="28">
         <v>44811</v>
       </c>
@@ -5079,7 +5786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" ht="18" customHeight="1">
       <c r="B86" s="28">
         <v>44814</v>
       </c>
@@ -5107,7 +5814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" ht="18" customHeight="1">
       <c r="B87" s="28">
         <v>44817</v>
       </c>
@@ -5132,7 +5839,7 @@
         <v>5645700</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" ht="18" customHeight="1">
       <c r="B88" s="28">
         <v>44820</v>
       </c>
@@ -5160,7 +5867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" ht="18" customHeight="1">
       <c r="B89" s="28">
         <v>44823</v>
       </c>
@@ -5185,7 +5892,7 @@
         <v>2711500</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" ht="18" customHeight="1">
       <c r="B90" s="28">
         <v>44826</v>
       </c>
@@ -5210,7 +5917,7 @@
         <v>2703000</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" ht="18" customHeight="1">
       <c r="B91" s="28">
         <v>44829</v>
       </c>
@@ -5238,7 +5945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" ht="18" customHeight="1">
       <c r="B92" s="28">
         <v>44832</v>
       </c>
@@ -5266,7 +5973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" ht="18" customHeight="1">
       <c r="B93" s="28">
         <v>44835</v>
       </c>
@@ -5291,7 +5998,7 @@
         <v>4261900</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" ht="18" customHeight="1">
       <c r="B94" s="28">
         <v>44838</v>
       </c>
@@ -5316,7 +6023,7 @@
         <v>1853000</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" ht="18" customHeight="1">
       <c r="B95" s="28">
         <v>44841</v>
       </c>
@@ -5344,7 +6051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" ht="18" customHeight="1">
       <c r="B96" s="28">
         <v>44844</v>
       </c>
@@ -5372,7 +6079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" ht="18" customHeight="1">
       <c r="B97" s="28">
         <v>44847</v>
       </c>
@@ -5397,7 +6104,7 @@
         <v>1271600</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" ht="18" customHeight="1">
       <c r="B98" s="28">
         <v>44850</v>
       </c>
@@ -5425,7 +6132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" ht="18" customHeight="1">
       <c r="B99" s="28">
         <v>44853</v>
       </c>
@@ -5453,7 +6160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" ht="18" customHeight="1">
       <c r="B100" s="28">
         <v>44856</v>
       </c>
@@ -5481,7 +6188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" ht="18" customHeight="1">
       <c r="B101" s="28">
         <v>44859</v>
       </c>
@@ -5509,7 +6216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" ht="18" customHeight="1">
       <c r="B102" s="28">
         <v>44862</v>
       </c>
@@ -5534,7 +6241,7 @@
         <v>6339300</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" ht="18" customHeight="1">
       <c r="B103" s="28">
         <v>44865</v>
       </c>
@@ -5562,7 +6269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" ht="18" customHeight="1">
       <c r="B104" s="28">
         <v>44868</v>
       </c>
@@ -5590,7 +6297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" ht="18" customHeight="1">
       <c r="B105" s="28">
         <v>44871</v>
       </c>
@@ -5615,7 +6322,7 @@
         <v>4972500</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" ht="18" customHeight="1">
       <c r="B106" s="28">
         <v>44874</v>
       </c>
@@ -5640,7 +6347,7 @@
         <v>3316275</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" ht="18" customHeight="1">
       <c r="B107" s="28">
         <v>44877</v>
       </c>
@@ -5668,7 +6375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" ht="18" customHeight="1">
       <c r="B108" s="28">
         <v>44880</v>
       </c>
@@ -5696,7 +6403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" ht="18" customHeight="1">
       <c r="B109" s="28">
         <v>44883</v>
       </c>
@@ -5721,7 +6428,7 @@
         <v>2822850</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" ht="18" customHeight="1">
       <c r="B110" s="28">
         <v>44886</v>
       </c>
@@ -5749,7 +6456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" ht="18" customHeight="1">
       <c r="B111" s="28">
         <v>44889</v>
       </c>
@@ -5774,7 +6481,7 @@
         <v>2703000</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" ht="18" customHeight="1">
       <c r="B112" s="28">
         <v>44892</v>
       </c>
@@ -5799,7 +6506,7 @@
         <v>992375</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" ht="18" customHeight="1">
       <c r="B113" s="28">
         <v>44895</v>
       </c>
@@ -5827,7 +6534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" ht="18" customHeight="1">
       <c r="B114" s="28">
         <v>44898</v>
       </c>
@@ -5855,7 +6562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" ht="18" customHeight="1">
       <c r="B115" s="28">
         <v>44901</v>
       </c>
@@ -5880,7 +6587,7 @@
         <v>1575050</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" ht="18" customHeight="1">
       <c r="B116" s="28">
         <v>44904</v>
       </c>
@@ -5905,7 +6612,7 @@
         <v>3263150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" ht="18" customHeight="1">
       <c r="B117" s="28">
         <v>44907</v>
       </c>
@@ -5933,7 +6640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" ht="18" customHeight="1">
       <c r="B118" s="28">
         <v>44910</v>
       </c>
@@ -5961,7 +6668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" ht="18" customHeight="1">
       <c r="B119" s="28">
         <v>44913</v>
       </c>
@@ -5986,7 +6693,7 @@
         <v>4322250</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" ht="18" customHeight="1">
       <c r="B120" s="28">
         <v>44916</v>
       </c>
@@ -6011,7 +6718,7 @@
         <v>864450</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" ht="18" customHeight="1">
       <c r="B121" s="28">
         <v>44919</v>
       </c>
@@ -6039,7 +6746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" ht="18" customHeight="1">
       <c r="B122" s="28">
         <v>44922</v>
       </c>
@@ -6067,7 +6774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" ht="18" customHeight="1">
       <c r="B123" s="28">
         <v>44925</v>
       </c>
@@ -6092,7 +6799,7 @@
         <v>6254640</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9">
       <c r="B124" s="25" t="s">
         <v>56</v>
       </c>
@@ -6113,47 +6820,49 @@
       </c>
       <c r="I124" s="27"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9">
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9">
       <c r="I128" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067432F9-3ECF-4D2F-949A-5B18F53F5E7C}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.625" style="35" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="35" customWidth="1"/>
-    <col min="3" max="5" width="12.25" style="35" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="35" customWidth="1"/>
+    <col min="4" max="5" width="14.875" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+    <row r="2" spans="2:7" ht="26.25">
+      <c r="B2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
       <c r="C4" s="37" t="s">
         <v>26</v>
@@ -6165,15 +6874,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="18.75" customHeight="1">
       <c r="B5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="33" t="e">
+        <f t="shared" ref="C5" si="0">SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="33" t="e">
+        <f t="shared" ref="D5" si="1">SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="34" t="e">
+        <f t="shared" ref="E5" si="2">SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18.75" customHeight="1">
       <c r="B6" s="37" t="s">
         <v>59</v>
       </c>
@@ -6181,19 +6902,67 @@
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
     </row>
-    <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="18.75" customHeight="1">
       <c r="B7" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="33">
+        <f>SUM('#REF!-1'!F8:F123)</f>
+        <v>2035</v>
+      </c>
+      <c r="D10" s="33">
+        <f>SUM('#REF!-1'!G8:G123)</f>
+        <v>516727150</v>
+      </c>
+      <c r="E10" s="33">
+        <f>SUM('#REF!-1'!H8:H123)</f>
+        <v>439218077.5</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6201,13 +6970,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F0F22-C1BD-4455-AE4E-0952D7962886}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
@@ -6215,8 +6984,8 @@
     <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="12.75" customHeight="1"/>
+    <row r="2" spans="2:5" ht="20.25" customHeight="1">
       <c r="B2" s="38" t="s">
         <v>87</v>
       </c>
@@ -6230,100 +6999,258 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="22.5" customHeight="1">
       <c r="B3" s="40" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="40" t="str">
+        <f>REPLACE(B3,2,1,"*")</f>
+        <v>최*희</v>
+      </c>
+      <c r="E3" s="40" t="str">
+        <f>REPLACE(C3,9,6,"******")</f>
+        <v>000325-4******</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="22.5" customHeight="1">
       <c r="B4" s="40" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="40" t="str">
+        <f t="shared" ref="D4:D11" si="0">REPLACE(B4,2,1,"*")</f>
+        <v>이*호</v>
+      </c>
+      <c r="E4" s="40" t="str">
+        <f t="shared" ref="E4:E11" si="1">REPLACE(C4,9,6,"******")</f>
+        <v>021201-3******</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="22.5" customHeight="1">
       <c r="B5" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>차*영</v>
+      </c>
+      <c r="E5" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>011020-4******</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="22.5" customHeight="1">
       <c r="B6" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>김*헌</v>
+      </c>
+      <c r="E6" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>001129-3******</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>고*주</v>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>030929-4******</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>강*나</v>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>020509-4******</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="22.5" customHeight="1">
       <c r="B9" s="40" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>허*</v>
+      </c>
+      <c r="E9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>040321-3******</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="22.5" customHeight="1">
       <c r="B10" s="40" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>방*현</v>
+      </c>
+      <c r="E10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>010413-3******</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="22.5" customHeight="1">
       <c r="B11" s="40" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>이*석</v>
+      </c>
+      <c r="E11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>031110-4******</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.25">
+      <c r="B13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.25">
+      <c r="B14" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25">
+      <c r="B15" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.25">
+      <c r="B16" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="17.25">
+      <c r="B17" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="17.25">
+      <c r="B18" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="17.25">
+      <c r="B19" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="17.25">
+      <c r="B20" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="17.25">
+      <c r="B21" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="17.25">
+      <c r="B22" s="40" t="e">
+        <f>REPLACE(#REF!,2,1,"*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="40" t="e">
+        <f>REPLACE(#REF!,9,6,"******")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6331,11 +7258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A926B50-5392-4BF1-AE0D-2993C012FD01}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.5" style="42" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="42" bestFit="1" customWidth="1"/>
@@ -6353,24 +7280,24 @@
     <col min="20" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="26.25">
       <c r="A1" s="41"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="H2" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1">
       <c r="B3" s="48" t="s">
         <v>65</v>
       </c>
@@ -6393,7 +7320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1">
       <c r="B4" s="50">
         <v>44656</v>
       </c>
@@ -6403,17 +7330,22 @@
       <c r="D4" s="52">
         <v>50</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="62"/>
+      <c r="E4" s="60">
+        <f>VLOOKUP(C4,$H$4:$I$10,2,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="F4" s="51">
+        <f>D4*E4</f>
+        <v>150000</v>
+      </c>
       <c r="H4" s="53" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="54">
         <v>3000</v>
       </c>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" ht="21.75" customHeight="1">
       <c r="B5" s="50">
         <v>44656</v>
       </c>
@@ -6423,57 +7355,74 @@
       <c r="D5" s="52">
         <v>80</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="E5" s="60">
+        <f t="shared" ref="E5:E25" si="0">VLOOKUP(C5,$H$4:$I$10,2,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="F5" s="51">
+        <f t="shared" ref="F5:F25" si="1">D5*E5</f>
+        <v>80000</v>
+      </c>
       <c r="H5" s="53" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="54">
         <v>1000</v>
       </c>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1">
       <c r="B6" s="50">
         <v>44656</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="94" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="52">
         <v>30</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
-      <c r="H6" s="57" t="s">
+      <c r="E6" s="60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="51" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="55" t="s">
         <v>73</v>
       </c>
       <c r="I6" s="54">
         <v>1500</v>
       </c>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" customHeight="1">
       <c r="B7" s="50">
         <v>44656</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="94" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="52">
         <v>70</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="51" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
       <c r="H7" s="53" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="54">
         <v>3000</v>
       </c>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" ht="21.75" customHeight="1">
       <c r="B8" s="50">
         <v>44656</v>
       </c>
@@ -6483,17 +7432,23 @@
       <c r="D8" s="52">
         <v>40</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="60">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="51">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
       <c r="H8" s="53" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="54">
         <v>8000</v>
       </c>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.75" customHeight="1">
       <c r="B9" s="50">
         <v>44656</v>
       </c>
@@ -6503,8 +7458,14 @@
       <c r="D9" s="52">
         <v>10</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
+      <c r="E9" s="60">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F9" s="51">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
       <c r="H9" s="53" t="s">
         <v>75</v>
       </c>
@@ -6512,7 +7473,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="21.75" customHeight="1">
       <c r="B10" s="50">
         <v>44696</v>
       </c>
@@ -6522,17 +7483,23 @@
       <c r="D10" s="52">
         <v>50</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
+      <c r="E10" s="60">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="F10" s="51">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
       <c r="H10" s="53" t="s">
         <v>77</v>
       </c>
       <c r="I10" s="54">
         <v>1500</v>
       </c>
-      <c r="K10" s="60"/>
-    </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.75" customHeight="1">
       <c r="B11" s="50">
         <v>44696</v>
       </c>
@@ -6542,23 +7509,38 @@
       <c r="D11" s="52">
         <v>80</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="60">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F11" s="51">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21.75" customHeight="1">
       <c r="B12" s="50">
         <v>44696</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="52">
         <v>30</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="60">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F12" s="51">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21.75" customHeight="1">
       <c r="B13" s="50">
         <v>44696</v>
       </c>
@@ -6568,23 +7550,41 @@
       <c r="D13" s="52">
         <v>50</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="60">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F13" s="51">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21.75" customHeight="1">
       <c r="B14" s="50">
         <v>44742</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="94" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="52">
         <v>90</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="51" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21.75" customHeight="1">
       <c r="B15" s="50">
         <v>44742</v>
       </c>
@@ -6594,10 +7594,16 @@
       <c r="D15" s="52">
         <v>50</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="60">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F15" s="51">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21.75" customHeight="1">
       <c r="B16" s="50">
         <v>44742</v>
       </c>
@@ -6607,10 +7613,16 @@
       <c r="D16" s="52">
         <v>30</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="60">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="F16" s="51">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="21.75" customHeight="1">
       <c r="B17" s="50">
         <v>44742</v>
       </c>
@@ -6620,10 +7632,16 @@
       <c r="D17" s="52">
         <v>40</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="60">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F17" s="51">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21.75" customHeight="1">
       <c r="B18" s="50">
         <v>44742</v>
       </c>
@@ -6633,10 +7651,16 @@
       <c r="D18" s="52">
         <v>10</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="60">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="F18" s="51">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="21.75" customHeight="1">
       <c r="B19" s="50">
         <v>44742</v>
       </c>
@@ -6646,10 +7670,16 @@
       <c r="D19" s="52">
         <v>40</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="60">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="51">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="21.75" customHeight="1">
       <c r="B20" s="50">
         <v>44762</v>
       </c>
@@ -6659,10 +7689,16 @@
       <c r="D20" s="52">
         <v>40</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="60">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F20" s="51">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="21.75" customHeight="1">
       <c r="B21" s="50">
         <v>44805</v>
       </c>
@@ -6672,10 +7708,16 @@
       <c r="D21" s="52">
         <v>80</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="60">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F21" s="51">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="21.75" customHeight="1">
       <c r="B22" s="50">
         <v>44805</v>
       </c>
@@ -6685,10 +7727,16 @@
       <c r="D22" s="52">
         <v>60</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="60">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F22" s="51">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="21.75" customHeight="1">
       <c r="B23" s="50">
         <v>44805</v>
       </c>
@@ -6698,10 +7746,16 @@
       <c r="D23" s="52">
         <v>20</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="60">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F23" s="51">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="21.75" customHeight="1">
       <c r="B24" s="50">
         <v>44805</v>
       </c>
@@ -6711,10 +7765,16 @@
       <c r="D24" s="52">
         <v>40</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="62"/>
-    </row>
-    <row r="25" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="60">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F24" s="51">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="21.75" customHeight="1">
       <c r="B25" s="50">
         <v>44805</v>
       </c>
@@ -6724,14 +7784,20 @@
       <c r="D25" s="52">
         <v>20</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="60">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F25" s="51">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
